--- a/zad3/MIASI-3.xlsx
+++ b/zad3/MIASI-3.xlsx
@@ -23,6 +23,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t xml:space="preserve"> λ</t>
+  </si>
+  <si>
+    <t>μ</t>
+  </si>
+  <si>
+    <t>p =  λ/μ</t>
+  </si>
+  <si>
+    <t>obsluga</t>
+  </si>
+  <si>
+    <t>strata</t>
+  </si>
+  <si>
+    <t>M/M/c</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>Qc</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>Pobs</t>
+  </si>
+  <si>
+    <t>Pstr</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>i*pi</t>
+  </si>
+  <si>
+    <t>srednia il zgloszen l</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
@@ -35,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72,6 +135,1129 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>M/M/1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Obsluga</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76923076923076916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58823529411764708</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47619047619047616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>strata</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28571428571428575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37499999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41176470588235292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44444444444444448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47368421052631582</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52380952380952384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54545454545454541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1268876384"/>
+        <c:axId val="-1268877472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1268876384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t> λ</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1268877472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1268877472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1268876384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,12 +1523,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>C4/B$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>1/(1+E4)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="H4">
+        <f>E4/(1+E4)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E15" si="0">C5/B$2</f>
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G15" si="1">1/(1+E5)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H15" si="2">E5/(1+E5)</f>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.28571428571428575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.47368421052631582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <f>SUM(D25:D28)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f>C25/B$23</f>
+        <v>0.4</v>
+      </c>
+      <c r="E25">
+        <f>D25/H$23</f>
+        <v>0.1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>J25*E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D38" si="3">C26/B$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E38" si="4">D26/H$23</f>
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <f>E28</f>
+        <v>0.4</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:K28" si="5">J26*E26</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <f>1-H26</f>
+        <v>0.6</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32">
+        <f>SUM(K25:K28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <f>SUM(D25:D38)</f>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/zad3/MIASI-3.xlsx
+++ b/zad3/MIASI-3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t xml:space="preserve"> λ</t>
   </si>
@@ -44,41 +44,38 @@
     <t>M/M/c</t>
   </si>
   <si>
-    <t>C</t>
+    <t>lambda</t>
   </si>
   <si>
-    <t>Q</t>
+    <t>u</t>
   </si>
   <si>
-    <t>Qi</t>
+    <t>c</t>
   </si>
   <si>
-    <t>Qc</t>
+    <t>ro</t>
   </si>
   <si>
-    <t>pi</t>
+    <t>Góra</t>
   </si>
   <si>
-    <t>Pobs</t>
+    <t>SUM</t>
   </si>
   <si>
-    <t>Pstr</t>
+    <t>Strata</t>
   </si>
   <si>
-    <t>i</t>
+    <t>Obsługa</t>
   </si>
   <si>
-    <t>i*pi</t>
-  </si>
-  <si>
-    <t>srednia il zgloszen l</t>
+    <t>średnia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +84,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,10 +114,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -114,12 +173,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,11 +529,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1268876384"/>
-        <c:axId val="-1268877472"/>
+        <c:axId val="-1254353936"/>
+        <c:axId val="-1254352848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1268876384"/>
+        <c:axId val="-1254353936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,7 +633,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268877472"/>
+        <c:crossAx val="-1254352848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -550,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1268877472"/>
+        <c:axId val="-1254352848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +692,695 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268876384"/>
+        <c:crossAx val="-1254353936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>M/M/c</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pstr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$24:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.1505184125849155E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6793856491480716E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6226323457989316E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.646851218705197E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5238095238095233E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13870605233584843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18372422236675975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22814492995794697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27068506714524415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31067961165048547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3478622426553572</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38220575631065279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41381658540826011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44286891813219431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pobs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$24:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.99928494815874147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99232061435085195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97377367654201064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94353148781294804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86129394766415157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81627577763324022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.771855070042053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7293149328547559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68932038834951448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65213775734464274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61779424368934721</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58618341459173995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55713108186780569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>średnia</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$24:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.39971397926349661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7938564914806816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1685284118504127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5096503805007169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8095238095238095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0671054743939639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2855721773730724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4699362241345697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6255337582771214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7572815533980579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8694061323164282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9654123697088663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0481537558770477</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1199340584597115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1257563376"/>
+        <c:axId val="-1257561744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1257563376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t> λ</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1257561744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1257561744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1257563376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -722,7 +1501,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1252,6 +2574,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1523,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L40"/>
+  <dimension ref="A2:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,293 +3149,1040 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2</v>
+      </c>
+      <c r="K23" s="6">
+        <v>3</v>
+      </c>
+      <c r="L23" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="M23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <f>A24 / B24</f>
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="8">
+        <f>(POWER(E24,C24)/FACT(C24))</f>
+        <v>1.0666666666666672E-3</v>
+      </c>
+      <c r="H24" s="9">
+        <f>POWER($E24,H$1)/FACT(H$1)</f>
         <v>1</v>
       </c>
-      <c r="B23">
+      <c r="I24" s="10">
+        <f>POWER($E24,I$23)/FACT(I$23)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" ref="J24:L37" si="3">POWER($E24,J$23)/FACT(J$23)</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="3"/>
+        <v>1.066666666666667E-2</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0666666666666672E-3</v>
+      </c>
+      <c r="M24" s="8">
+        <f>SUM(H24:L24)</f>
+        <v>1.4917333333333334</v>
+      </c>
+      <c r="N24" s="8">
+        <f>G24/M24</f>
+        <v>7.1505184125849155E-4</v>
+      </c>
+      <c r="O24">
+        <f>1-N24</f>
+        <v>0.99928494815874147</v>
+      </c>
+      <c r="P24">
+        <f>O24*E24</f>
+        <v>0.39971397926349661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8">
         <v>5</v>
       </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23">
-        <f>SUM(D25:D28)</f>
+      <c r="C25" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <f>C25/B$23</f>
-        <v>0.4</v>
-      </c>
       <c r="E25">
-        <f>D25/H$23</f>
-        <v>0.1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f>J25*E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C26">
+        <f t="shared" ref="E25:E37" si="4">A25 / B25</f>
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" ref="G25:G37" si="5">(POWER(E25,C25)/FACT(C25))</f>
+        <v>1.7066666666666674E-2</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" ref="H25:H37" si="6">POWER($E25,H$1)/FACT(H$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" ref="I25:I37" si="7">POWER($E25,I$23)/FACT(I$23)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="3"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="3"/>
+        <v>8.5333333333333358E-2</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="3"/>
+        <v>1.7066666666666674E-2</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" ref="M25:M37" si="8">SUM(H25:L25)</f>
+        <v>2.2223999999999999</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" ref="N25:N37" si="9">G25/M25</f>
+        <v>7.6793856491480716E-3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:O37" si="10">1-N25</f>
+        <v>0.99232061435085195</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P37" si="11">O25*E25</f>
+        <v>0.7938564914806816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8">
         <v>4</v>
       </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D38" si="3">C26/B$23</f>
-        <v>0.8</v>
-      </c>
       <c r="E26">
-        <f t="shared" ref="E26:E38" si="4">D26/H$23</f>
-        <v>0.2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26">
-        <f>E28</f>
-        <v>0.4</v>
-      </c>
-      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="5"/>
+        <v>8.6399999999999991E-2</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K26">
-        <f t="shared" ref="K26:K28" si="5">J26*E26</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27">
+      <c r="I26" s="10">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="J26" s="10">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>0.72</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="3"/>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="3"/>
+        <v>8.6399999999999991E-2</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="8"/>
+        <v>3.2943999999999996</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="9"/>
+        <v>2.6226323457989316E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>0.97377367654201064</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="11"/>
+        <v>1.1685284118504127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>8</v>
+      </c>
+      <c r="B27" s="8">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8">
+        <v>4</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27">
-        <f>1-H26</f>
-        <v>0.6</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
+        <v>1.6</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
+        <v>0.27306666666666679</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J27" s="10">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>1.2800000000000002</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="3"/>
+        <v>0.68266666666666687</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="3"/>
+        <v>0.27306666666666679</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="8"/>
+        <v>4.8357333333333337</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="9"/>
+        <v>5.646851218705197E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="10"/>
+        <v>0.94353148781294804</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="11"/>
+        <v>1.5096503805007169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8">
+        <v>4</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8">
         <f t="shared" si="5"/>
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="K28" s="10">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="9"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="11"/>
+        <v>1.8095238095238095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8">
+        <v>4</v>
+      </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>12</v>
-      </c>
-      <c r="D30">
+        <v>2.4</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="5"/>
+        <v>1.3823999999999999</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="J29" s="10">
         <f t="shared" si="3"/>
-        <v>2.4</v>
+        <v>2.88</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="3"/>
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="3"/>
+        <v>1.3823999999999999</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="8"/>
+        <v>9.9664000000000001</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="9"/>
+        <v>0.13870605233584843</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>0.86129394766415157</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="11"/>
+        <v>2.0671054743939639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>14</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>14</v>
-      </c>
-      <c r="D31">
+        <v>2.8</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="5"/>
+        <v>2.5610666666666657</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="7"/>
+        <v>2.8</v>
+      </c>
+      <c r="J30" s="10">
         <f t="shared" si="3"/>
-        <v>2.8</v>
+        <v>3.9199999999999995</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="3"/>
+        <v>3.6586666666666656</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="3"/>
+        <v>2.5610666666666657</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="8"/>
+        <v>13.939733333333329</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="9"/>
+        <v>0.18372422236675975</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="10"/>
+        <v>0.81627577763324022</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="11"/>
+        <v>2.2855721773730724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>16</v>
+      </c>
+      <c r="B31" s="8">
+        <v>5</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>16</v>
-      </c>
-      <c r="D32">
+        <v>3.2</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="5"/>
+        <v>4.3690666666666687</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="J31" s="10">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.120000000000001</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" si="3"/>
+        <v>5.4613333333333349</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" si="3"/>
+        <v>4.3690666666666687</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="8"/>
+        <v>19.150400000000005</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" si="9"/>
+        <v>0.22814492995794697</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="10"/>
+        <v>0.771855070042053</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="11"/>
+        <v>2.4699362241345697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>18</v>
+      </c>
+      <c r="B32" s="8">
+        <v>5</v>
+      </c>
+      <c r="C32" s="8">
+        <v>4</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="J32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32">
-        <f>SUM(K25:K28)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>18</v>
-      </c>
-      <c r="D33">
+        <v>3.6</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="5"/>
+        <v>6.9984000000000011</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="7"/>
+        <v>3.6</v>
+      </c>
+      <c r="J32" s="10">
         <f t="shared" si="3"/>
-        <v>3.6</v>
+        <v>6.48</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="3"/>
+        <v>7.7760000000000007</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="3"/>
+        <v>6.9984000000000011</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="8"/>
+        <v>25.854400000000002</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" si="9"/>
+        <v>0.27068506714524415</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>0.7293149328547559</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="11"/>
+        <v>2.6255337582771214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>20</v>
+      </c>
+      <c r="B33" s="8">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8">
+        <v>4</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>20</v>
-      </c>
-      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="5"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="J33" s="10">
         <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="3"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" si="3"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" si="8"/>
+        <v>34.333333333333329</v>
+      </c>
+      <c r="N33" s="8">
+        <f t="shared" si="9"/>
+        <v>0.31067961165048547</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="10"/>
+        <v>0.68932038834951448</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="11"/>
+        <v>2.7572815533980579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>22</v>
+      </c>
+      <c r="B34" s="8">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8">
         <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="5"/>
+        <v>15.617066666666672</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>22</v>
-      </c>
-      <c r="D35">
+      <c r="I34" s="10">
+        <f t="shared" si="7"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J34" s="10">
         <f t="shared" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>9.6800000000000015</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" si="3"/>
+        <v>14.197333333333338</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" si="3"/>
+        <v>15.617066666666672</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="8"/>
+        <v>44.894400000000012</v>
+      </c>
+      <c r="N34" s="8">
+        <f t="shared" si="9"/>
+        <v>0.3478622426553572</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="10"/>
+        <v>0.65213775734464274</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="11"/>
+        <v>2.8694061323164282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>24</v>
+      </c>
+      <c r="B35" s="8">
+        <v>5</v>
+      </c>
+      <c r="C35" s="8">
+        <v>4</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>24</v>
-      </c>
-      <c r="D36">
+        <v>4.8</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="5"/>
+        <v>22.118399999999998</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="7"/>
+        <v>4.8</v>
+      </c>
+      <c r="J35" s="10">
         <f t="shared" si="3"/>
-        <v>4.8</v>
+        <v>11.52</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="3"/>
+        <v>18.431999999999999</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="3"/>
+        <v>22.118399999999998</v>
+      </c>
+      <c r="M35" s="8">
+        <f t="shared" si="8"/>
+        <v>57.870399999999989</v>
+      </c>
+      <c r="N35" s="8">
+        <f t="shared" si="9"/>
+        <v>0.38220575631065279</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="10"/>
+        <v>0.61779424368934721</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="11"/>
+        <v>2.9654123697088663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>26</v>
+      </c>
+      <c r="B36" s="8">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8">
+        <v>4</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>26</v>
-      </c>
-      <c r="D37">
+        <v>5.2</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="5"/>
+        <v>30.465066666666672</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
+      <c r="J36" s="10">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>13.520000000000001</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="3"/>
+        <v>23.434666666666672</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" si="3"/>
+        <v>30.465066666666672</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="8"/>
+        <v>73.619733333333343</v>
+      </c>
+      <c r="N36" s="8">
+        <f t="shared" si="9"/>
+        <v>0.41381658540826011</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="10"/>
+        <v>0.58618341459173995</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="11"/>
+        <v>3.0481537558770477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>28</v>
+      </c>
+      <c r="B37" s="8">
+        <v>5</v>
+      </c>
+      <c r="C37" s="8">
+        <v>4</v>
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38">
+        <v>5.6</v>
+      </c>
+      <c r="G37" s="8">
+        <f>(POWER(E37,C37)/FACT(C37))</f>
+        <v>40.977066666666651</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="7"/>
+        <v>5.6</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="3"/>
+        <v>15.679999999999998</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="3"/>
+        <v>29.269333333333325</v>
+      </c>
+      <c r="L37" s="10">
+        <f t="shared" si="3"/>
+        <v>40.977066666666651</v>
+      </c>
+      <c r="M37" s="8">
+        <f t="shared" si="8"/>
+        <v>92.526399999999967</v>
+      </c>
+      <c r="N37" s="8">
+        <f t="shared" si="9"/>
+        <v>0.44286891813219431</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="10"/>
+        <v>0.55713108186780569</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="11"/>
+        <v>3.1199340584597115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>7.1505184125849155E-4</v>
+      </c>
+      <c r="D43">
+        <v>0.99928494815874147</v>
+      </c>
+      <c r="E43">
+        <v>0.39971397926349661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>7.6793856491480716E-3</v>
+      </c>
+      <c r="D44">
+        <v>0.99232061435085195</v>
+      </c>
+      <c r="E44">
+        <v>0.7938564914806816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="14">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>2.6226323457989316E-2</v>
+      </c>
+      <c r="D45">
+        <v>0.97377367654201064</v>
+      </c>
+      <c r="E45">
+        <v>1.1685284118504127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="14">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>5.646851218705197E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.94353148781294804</v>
+      </c>
+      <c r="E46">
+        <v>1.5096503805007169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="14">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="E47">
+        <v>1.8095238095238095</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="14">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>0.13870605233584843</v>
+      </c>
+      <c r="D48">
+        <v>0.86129394766415157</v>
+      </c>
+      <c r="E48">
+        <v>2.0671054743939639</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>0.18372422236675975</v>
+      </c>
+      <c r="D49">
+        <v>0.81627577763324022</v>
+      </c>
+      <c r="E49">
+        <v>2.2855721773730724</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="14">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>0.22814492995794697</v>
+      </c>
+      <c r="D50">
+        <v>0.771855070042053</v>
+      </c>
+      <c r="E50">
+        <v>2.4699362241345697</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="14">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>0.27068506714524415</v>
+      </c>
+      <c r="D51">
+        <v>0.7293149328547559</v>
+      </c>
+      <c r="E51">
+        <v>2.6255337582771214</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="14">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>0.31067961165048547</v>
+      </c>
+      <c r="D52">
+        <v>0.68932038834951448</v>
+      </c>
+      <c r="E52">
+        <v>2.7572815533980579</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>0.3478622426553572</v>
+      </c>
+      <c r="D53">
+        <v>0.65213775734464274</v>
+      </c>
+      <c r="E53">
+        <v>2.8694061323164282</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="14">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>0.38220575631065279</v>
+      </c>
+      <c r="D54">
+        <v>0.61779424368934721</v>
+      </c>
+      <c r="E54">
+        <v>2.9654123697088663</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>0.41381658540826011</v>
+      </c>
+      <c r="D55">
+        <v>0.58618341459173995</v>
+      </c>
+      <c r="E55">
+        <v>3.0481537558770477</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="14">
         <v>28</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="3"/>
-        <v>5.6</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="4"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <f>SUM(D25:D38)</f>
-        <v>42</v>
+      <c r="C56">
+        <v>0.44286891813219431</v>
+      </c>
+      <c r="D56">
+        <v>0.55713108186780569</v>
+      </c>
+      <c r="E56">
+        <v>3.1199340584597115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>